--- a/ZPC-ISA.xlsx
+++ b/ZPC-ISA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sea\Documents\Tencent Files\597651954\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\My Resource\AaI\SerenityTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="286">
   <si>
     <t xml:space="preserve">格式 </t>
   </si>
@@ -1924,11 +1924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:N115"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2400,7 +2399,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="10" spans="1:16" ht="16.2" thickBot="1">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2446,7 +2445,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="11" spans="1:16" ht="16.2" thickBot="1">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -2492,7 +2491,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="12" spans="1:16" ht="16.2" thickBot="1">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -2538,7 +2537,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="13" spans="1:16" ht="16.2" thickBot="1">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -2584,7 +2583,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="14" spans="1:16" ht="16.2" thickBot="1">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -2630,7 +2629,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="15" spans="1:16" ht="16.2" thickBot="1">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -2676,7 +2675,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="16" spans="1:16" ht="16.2" thickBot="1">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -2722,7 +2721,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="17" spans="1:16" ht="16.2" thickBot="1">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -2768,7 +2767,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="18" spans="1:16" ht="16.2" thickBot="1">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -3314,7 +3313,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="29" spans="1:16" ht="16.2" thickBot="1">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -3360,7 +3359,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="30" spans="1:16" ht="16.2" thickBot="1">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -3406,7 +3405,7 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="31" spans="1:16" ht="16.2" thickBot="1">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -3452,7 +3451,7 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="32" spans="1:16" ht="16.2" thickBot="1">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -3498,7 +3497,7 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="33" spans="1:16" ht="16.2" thickBot="1">
       <c r="A33" s="10">
         <v>31</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="37" spans="1:16" ht="16.2" thickBot="1">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -3740,7 +3739,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="38" spans="1:16" ht="16.2" thickBot="1">
       <c r="A38" s="10">
         <v>36</v>
       </c>
@@ -3786,7 +3785,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="39" spans="1:16" ht="16.2" thickBot="1">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -4332,7 +4331,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="50" spans="1:16" ht="16.2" thickBot="1">
       <c r="A50" s="10">
         <v>48</v>
       </c>
@@ -4378,7 +4377,7 @@
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="51" spans="1:16" ht="16.2" thickBot="1">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -4424,7 +4423,7 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="52" spans="1:16" ht="16.2" thickBot="1">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -4520,7 +4519,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="54" spans="1:16" ht="16.2" thickBot="1">
       <c r="A54" s="10">
         <v>52</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="57" spans="1:16" ht="16.2" thickBot="1">
       <c r="A57" s="10">
         <v>55</v>
       </c>
@@ -4712,7 +4711,7 @@
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
     </row>
-    <row r="58" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="58" spans="1:16" ht="16.2" thickBot="1">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -4760,7 +4759,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="16.2" hidden="1" thickBot="1">
+    <row r="59" spans="1:16" ht="16.2" thickBot="1">
       <c r="A59" s="10">
         <v>57</v>
       </c>
@@ -4908,1489 +4907,547 @@
     </row>
     <row r="79" spans="2:14" ht="15" thickBot="1"/>
     <row r="80" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B80" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H80" s="6">
-        <v>0</v>
-      </c>
-      <c r="I80" s="6">
-        <v>0</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L80" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="M80" s="6">
-        <v>0</v>
-      </c>
-      <c r="N80" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
     </row>
     <row r="81" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B81" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H81" s="6">
-        <v>0</v>
-      </c>
-      <c r="I81" s="6">
-        <v>0</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="M81" s="6">
-        <v>2</v>
-      </c>
-      <c r="N81" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
     </row>
     <row r="82" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B82" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H82" s="6">
-        <v>0</v>
-      </c>
-      <c r="I82" s="6">
-        <v>0</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L82" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="M82" s="6">
-        <v>3</v>
-      </c>
-      <c r="N82" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
     </row>
     <row r="83" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B83" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H83" s="6">
-        <v>0</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L83" s="6">
-        <v>0</v>
-      </c>
-      <c r="M83" s="6">
-        <v>4</v>
-      </c>
-      <c r="N83" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
     </row>
     <row r="84" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B84" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H84" s="6">
-        <v>0</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J84" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L84" s="6">
-        <v>0</v>
-      </c>
-      <c r="M84" s="6">
-        <v>6</v>
-      </c>
-      <c r="N84" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
     </row>
     <row r="85" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B85" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H85" s="6">
-        <v>0</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L85" s="6">
-        <v>0</v>
-      </c>
-      <c r="M85" s="6">
-        <v>7</v>
-      </c>
-      <c r="N85" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
     </row>
     <row r="86" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B86" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H86" s="6">
-        <v>0</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J86" s="6">
-        <v>0</v>
-      </c>
-      <c r="K86" s="6">
-        <v>0</v>
-      </c>
-      <c r="L86" s="6">
-        <v>0</v>
-      </c>
-      <c r="M86" s="6">
-        <v>8</v>
-      </c>
-      <c r="N86" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
     </row>
     <row r="87" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B87" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H87" s="6">
-        <v>0</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J87" s="6">
-        <v>0</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L87" s="6">
-        <v>0</v>
-      </c>
-      <c r="M87" s="6">
-        <v>9</v>
-      </c>
-      <c r="N87" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
     </row>
     <row r="88" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B88" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H88" s="6">
-        <v>0</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L88" s="6">
-        <v>0</v>
-      </c>
-      <c r="M88" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N88" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
     </row>
     <row r="89" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B89" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="6">
-        <v>0</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L89" s="6">
-        <v>0</v>
-      </c>
-      <c r="M89" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N89" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
     </row>
     <row r="90" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B90" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H90" s="6">
-        <v>0</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L90" s="6">
-        <v>0</v>
-      </c>
-      <c r="M90" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="N90" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
     </row>
     <row r="91" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B91" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H91" s="6">
-        <v>0</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L91" s="6">
-        <v>0</v>
-      </c>
-      <c r="M91" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N91" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
     </row>
     <row r="92" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B92" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" s="6">
-        <v>0</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L92" s="6">
-        <v>0</v>
-      </c>
-      <c r="M92" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N92" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
     </row>
     <row r="93" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B93" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" s="6">
-        <v>0</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L93" s="6">
-        <v>0</v>
-      </c>
-      <c r="M93" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N93" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
     </row>
     <row r="94" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B94" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" s="6">
-        <v>0</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L94" s="6">
-        <v>0</v>
-      </c>
-      <c r="M94" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="N94" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
     </row>
     <row r="95" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B95" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H95" s="6">
-        <v>0</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J95" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L95" s="6">
-        <v>0</v>
-      </c>
-      <c r="M95" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="N95" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
     </row>
     <row r="96" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B96" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H96" s="6">
-        <v>0</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J96" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L96" s="6">
-        <v>0</v>
-      </c>
-      <c r="M96" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="N96" s="6" t="s">
-        <v>221</v>
-      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
     </row>
     <row r="97" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B97" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H97" s="6">
-        <v>0</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J97" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L97" s="6">
-        <v>0</v>
-      </c>
-      <c r="M97" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N97" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
     </row>
     <row r="98" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B98" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H98" s="6">
-        <v>2</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J98" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="K98" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="L98" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M98" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N98" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
     </row>
     <row r="99" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B99" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H99" s="6">
-        <v>3</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J99" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="L99" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M99" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N99" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
     </row>
     <row r="100" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B100" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H100" s="6">
-        <v>4</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L100" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M100" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N100" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
     </row>
     <row r="101" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B101" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H101" s="6">
-        <v>8</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J101" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L101" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M101" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N101" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
     </row>
     <row r="102" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B102" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H102" s="6">
-        <v>9</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J102" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L102" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M102" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N102" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
     </row>
     <row r="103" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B103" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J103" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L103" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M103" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N103" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
     </row>
     <row r="104" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B104" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J104" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L104" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M104" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N104" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
     </row>
     <row r="105" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B105" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J105" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L105" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M105" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N105" s="6" t="s">
-        <v>266</v>
-      </c>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
     </row>
     <row r="106" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B106" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I106" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J106" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="K106" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="L106" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M106" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N106" s="6" t="s">
-        <v>266</v>
-      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
     </row>
     <row r="107" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B107" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J107" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L107" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M107" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N107" s="6" t="s">
-        <v>266</v>
-      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
     </row>
     <row r="108" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B108" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I108" s="6">
-        <v>0</v>
-      </c>
-      <c r="J108" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L108" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M108" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N108" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
     </row>
     <row r="109" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B109" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I109" s="6">
-        <v>0</v>
-      </c>
-      <c r="J109" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L109" s="6">
-        <v>0</v>
-      </c>
-      <c r="M109" s="6">
-        <v>0</v>
-      </c>
-      <c r="N109" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
     </row>
     <row r="110" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B110" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I110" s="6">
-        <v>4</v>
-      </c>
-      <c r="J110" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L110" s="6">
-        <v>0</v>
-      </c>
-      <c r="M110" s="6">
-        <v>0</v>
-      </c>
-      <c r="N110" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
     </row>
     <row r="111" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B111" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J111" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L111" s="6">
-        <v>0</v>
-      </c>
-      <c r="M111" s="6">
-        <v>2</v>
-      </c>
-      <c r="N111" s="6" t="s">
-        <v>281</v>
-      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
     </row>
     <row r="112" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B112" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J112" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L112" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M112" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N112" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
     </row>
     <row r="113" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B113" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J113" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L113" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M113" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N113" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
     </row>
     <row r="114" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B114" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J114" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L114" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M114" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N114" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
     </row>
     <row r="115" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B115" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J115" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L115" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M115" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N115" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="O1:O61">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="O1:O61"/>
   <sortState ref="A2:P61">
     <sortCondition ref="H2:H61"/>
     <sortCondition ref="M2:M61"/>

--- a/ZPC-ISA.xlsx
+++ b/ZPC-ISA.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\My Resource\AaI\SerenityTool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xilinx\programs\ZhejiangPersonalComputer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="8292"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="新建文本文档" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">新建文本文档!$O$1:$O$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">新建文本文档!$O$1:$P$62</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="287">
   <si>
     <t xml:space="preserve">格式 </t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">类 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">addi </t>
   </si>
   <si>
     <t xml:space="preserve">立即数加，有溢出 </t>
@@ -894,6 +891,14 @@
   </si>
   <si>
     <t>立即数或</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">addi </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -901,11 +906,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -913,7 +918,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -921,7 +926,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -930,7 +935,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -939,7 +944,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -948,7 +953,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -956,7 +961,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -964,7 +969,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -972,7 +977,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -980,7 +985,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -989,7 +994,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -998,7 +1003,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1006,7 +1011,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1015,7 +1020,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1023,7 +1028,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1032,7 +1037,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1041,7 +1046,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1049,14 +1054,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1595,30 +1600,30 @@
     <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1924,40 +1929,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P115"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.875" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1972,216 +1978,216 @@
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="N1" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>278</v>
-      </c>
       <c r="P1" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.2" thickBot="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="M2" s="6">
         <v>0</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="F3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="M3" s="6">
         <v>2</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="F4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="M4" s="6">
         <v>3</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="F5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -2190,48 +2196,48 @@
         <v>4</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="F6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -2240,48 +2246,48 @@
         <v>6</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="F7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -2290,42 +2296,42 @@
         <v>7</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
@@ -2340,48 +2346,48 @@
         <v>8</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>150</v>
-      </c>
       <c r="F9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -2390,134 +2396,134 @@
         <v>9</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="J10" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="16.2" thickBot="1">
+    <row r="11" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="F11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="L11" s="6">
         <v>0</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="16.2" thickBot="1">
+    <row r="12" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>180</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
@@ -2529,137 +2535,137 @@
         <v>0</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="16.2" thickBot="1">
+    <row r="13" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="N13" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="16.2" thickBot="1">
+    <row r="14" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="N14" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="16.2" thickBot="1">
+    <row r="15" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="K15" s="6">
         <v>0</v>
       </c>
@@ -2667,1604 +2673,1606 @@
         <v>0</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="16.2" thickBot="1">
+    <row r="16" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>198</v>
-      </c>
       <c r="N16" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="16.2" thickBot="1">
+    <row r="17" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="N17" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="16.2" thickBot="1">
+    <row r="18" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="N18" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="16.2" thickBot="1">
+    <row r="19" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="L19" s="6">
         <v>0</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="E20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="L20" s="6">
         <v>0</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="N21" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="L22" s="6">
         <v>0</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="F23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="L23" s="6">
         <v>0</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="F24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="L24" s="6">
         <v>0</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L25" s="6">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="N25" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L26" s="6">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="N26" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L27" s="6">
-        <v>0</v>
-      </c>
-      <c r="M27" s="6" t="s">
+      <c r="N27" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="N27" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="O27" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N28" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L28" s="6">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="O28" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
-        <v>0</v>
-      </c>
-      <c r="L29" s="6">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>249</v>
-      </c>
       <c r="N29" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="1:16" ht="16.2" thickBot="1">
+      <c r="P29" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H30" s="6">
         <v>1</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J30" s="6">
         <v>1</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" ht="16.2" thickBot="1">
+    <row r="31" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="F31" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H31" s="6">
         <v>1</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J31" s="6">
         <v>17</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" ht="16.2" thickBot="1">
+    <row r="32" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H32" s="6">
         <v>1</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J32" s="6">
         <v>0</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" ht="16.2" thickBot="1">
+    <row r="33" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="F33" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H33" s="6">
         <v>1</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J33" s="6">
         <v>16</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" ht="16.2" thickBot="1">
+    <row r="34" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="G34" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H34" s="6">
         <v>2</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="F35" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H35" s="6">
         <v>3</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="H36" s="6">
         <v>4</v>
       </c>
       <c r="I36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="K36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L36" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H37" s="6">
         <v>5</v>
       </c>
       <c r="I37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="K37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L37" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" ht="16.2" thickBot="1">
+    <row r="38" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="F38" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H38" s="6">
         <v>6</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J38" s="6">
         <v>0</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" ht="16.2" thickBot="1">
+    <row r="39" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H39" s="6">
         <v>7</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J39" s="6">
         <v>0</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" ht="16.2" thickBot="1">
+    <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>38</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="H40" s="6">
         <v>8</v>
       </c>
       <c r="I40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="K40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L40" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="H41" s="6">
         <v>9</v>
       </c>
       <c r="I41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="K41" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L41" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="F42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="I42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="K42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L42" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="I43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="K43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L43" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="I44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="K44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L44" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="I45" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I45" s="6" t="s">
+      <c r="J45" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>284</v>
-      </c>
       <c r="K45" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="I46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="K46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L46" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="E47" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="6" t="s">
+      <c r="H47" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="I47" s="6">
         <v>0</v>
       </c>
       <c r="J47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L47" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="E48" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F48" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I48" s="6">
-        <v>0</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="L48" s="6">
         <v>0</v>
       </c>
@@ -4272,48 +4280,48 @@
         <v>0</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>47</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="E49" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I49" s="6">
         <v>4</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L49" s="6">
         <v>0</v>
@@ -4322,39 +4330,39 @@
         <v>0</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" s="6" t="s">
+      <c r="F50" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="I50" s="6">
         <v>16</v>
@@ -4369,48 +4377,50 @@
         <v>0</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-    </row>
-    <row r="51" spans="1:16" ht="16.2" thickBot="1">
+      <c r="P50" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>49</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="E51" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H51" s="6" t="s">
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I51" s="6">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="L51" s="6">
         <v>0</v>
       </c>
@@ -4418,44 +4428,44 @@
         <v>0</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="1:16" ht="16.2" thickBot="1">
+    <row r="52" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>50</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="E52" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I52" s="6">
         <v>4</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L52" s="6">
         <v>0</v>
@@ -4464,44 +4474,44 @@
         <v>0</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="1:16" ht="16.2" thickBot="1">
+    <row r="53" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>51</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="F53" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G53" s="6" t="s">
+      <c r="I53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I53" s="6" t="s">
+      <c r="J53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J53" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>120</v>
+      <c r="K53" s="6">
+        <v>0</v>
       </c>
       <c r="L53" s="6">
         <v>0</v>
@@ -4510,944 +4520,413 @@
         <v>2</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>279</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="O53" s="5"/>
       <c r="P53" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>52</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="F54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="6" t="s">
+      <c r="H54" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H54" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="I54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="K54" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L54" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
     </row>
-    <row r="55" spans="1:16" ht="16.2" thickBot="1">
+    <row r="55" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>53</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D55" s="6" t="s">
+      <c r="E55" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="I55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="K55" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K55" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L55" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>54</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="E56" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="I56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="K56" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L56" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>55</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="6" t="s">
+      <c r="E57" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="I57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="K57" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K57" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L57" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
     </row>
-    <row r="58" spans="1:16" ht="16.2" thickBot="1">
+    <row r="58" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>56</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="E58" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="I58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="K58" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L58" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O58" s="5"/>
       <c r="P58" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>57</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="E59" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="F59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F59" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="I59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="K59" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L59" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
     </row>
-    <row r="60" spans="1:16" ht="16.2" thickBot="1">
+    <row r="60" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>58</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="E60" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="I60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J60" s="6" t="s">
+      <c r="K60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K60" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L60" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="16.2" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>59</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="E61" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="I61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="K61" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K61" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L61" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" ht="15" thickBot="1"/>
-    <row r="80" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-    </row>
-    <row r="81" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-    </row>
-    <row r="82" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-    </row>
-    <row r="83" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-    </row>
-    <row r="84" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-    </row>
-    <row r="85" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-    </row>
-    <row r="86" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-    </row>
-    <row r="87" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-    </row>
-    <row r="88" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-    </row>
-    <row r="89" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-    </row>
-    <row r="90" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-    </row>
-    <row r="91" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-    </row>
-    <row r="92" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-    </row>
-    <row r="93" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-    </row>
-    <row r="94" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-    </row>
-    <row r="95" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-    </row>
-    <row r="96" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-    </row>
-    <row r="97" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-    </row>
-    <row r="98" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-    </row>
-    <row r="99" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-    </row>
-    <row r="100" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-    </row>
-    <row r="101" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-    </row>
-    <row r="102" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-    </row>
-    <row r="103" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-    </row>
-    <row r="104" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-    </row>
-    <row r="105" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-    </row>
-    <row r="106" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
-    </row>
-    <row r="107" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-    </row>
-    <row r="108" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-    </row>
-    <row r="109" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-    </row>
-    <row r="110" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-    </row>
-    <row r="111" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-    </row>
-    <row r="112" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-    </row>
-    <row r="113" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-    </row>
-    <row r="114" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
-    </row>
-    <row r="115" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+      <c r="O62" s="2">
+        <f>COUNTIF(O2:O61,1)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="O1:O61"/>
+  <autoFilter ref="O1:P62">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:P61">
     <sortCondition ref="H2:H61"/>
     <sortCondition ref="M2:M61"/>

--- a/ZPC-ISA.xlsx
+++ b/ZPC-ISA.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="291">
   <si>
     <t xml:space="preserve">格式 </t>
   </si>
@@ -895,6 +895,22 @@
   </si>
   <si>
     <t xml:space="preserve">addi </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1932,8 +1948,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3362,7 +3378,9 @@
       <c r="N29" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="O29" s="5"/>
+      <c r="O29" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="P29" s="5" t="s">
         <v>286</v>
       </c>
@@ -4364,8 +4382,8 @@
       <c r="H50" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I50" s="6">
-        <v>16</v>
+      <c r="I50" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="J50" s="6">
         <v>0</v>
@@ -4382,7 +4400,9 @@
       <c r="N50" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="O50" s="5"/>
+      <c r="O50" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="P50" s="5" t="s">
         <v>278</v>
       </c>
@@ -4522,7 +4542,9 @@
       <c r="N53" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="O53" s="5"/>
+      <c r="O53" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="P53" s="5" t="s">
         <v>278</v>
       </c>
